--- a/data-raw/fieldplayers_overall_season_2016.xlsx
+++ b/data-raw/fieldplayers_overall_season_2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="3840" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>ng NGA</t>
   </si>
   <si>
-    <t>EstefanÃ­a Banini</t>
-  </si>
-  <si>
     <t>ar ARG</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>Boston Breakers</t>
   </si>
   <si>
-    <t>JosÃ©e BÃ©langer</t>
-  </si>
-  <si>
     <t>McKenzie Berryhill</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>Ellie Brush</t>
   </si>
   <si>
-    <t>DagnÃ½ BrynjarsdÃ³ttir</t>
-  </si>
-  <si>
     <t>is ISL</t>
   </si>
   <si>
@@ -518,9 +509,6 @@
     <t>Kaylyn Kyle</t>
   </si>
   <si>
-    <t>Stephanie LabbÃ©</t>
-  </si>
-  <si>
     <t>Lo'eau LaBonta</t>
   </si>
   <si>
@@ -599,9 +587,6 @@
     <t>Sam Mewis</t>
   </si>
   <si>
-    <t>MÃ´nica</t>
-  </si>
-  <si>
     <t>Alex Morgan</t>
   </si>
   <si>
@@ -713,9 +698,6 @@
     <t>Cari Roccaro</t>
   </si>
   <si>
-    <t>Raquel RodrÃ­guez</t>
-  </si>
-  <si>
     <t>cr CRC</t>
   </si>
   <si>
@@ -873,6 +855,24 @@
   </si>
   <si>
     <t>McCall Zerboni</t>
+  </si>
+  <si>
+    <t>Estefanía Banini</t>
+  </si>
+  <si>
+    <t>Josée Bélanger</t>
+  </si>
+  <si>
+    <t>Dagný Brynjarsdóttir</t>
+  </si>
+  <si>
+    <t>Stephanie Labbé</t>
+  </si>
+  <si>
+    <t>Mônica</t>
+  </si>
+  <si>
+    <t>Raquel Rodríguez</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1587,16 +1587,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>25</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1646,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2">
         <v>26</v>
@@ -1687,13 +1687,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -1729,13 +1729,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
@@ -1779,16 +1779,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F12" s="2">
         <v>23</v>
@@ -1829,13 +1829,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -1879,7 +1879,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -1888,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2">
         <v>22</v>
@@ -1929,16 +1929,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2">
         <v>27</v>
@@ -1971,13 +1971,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
@@ -2013,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>29</v>
@@ -2022,7 +2022,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2">
         <v>21</v>
@@ -2063,13 +2063,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>30</v>
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -2163,13 +2163,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
@@ -2213,7 +2213,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
@@ -2263,16 +2263,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2">
         <v>24</v>
@@ -2313,13 +2313,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>30</v>
@@ -2363,7 +2363,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
@@ -2413,16 +2413,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2">
         <v>21</v>
@@ -2455,7 +2455,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
@@ -2505,10 +2505,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>22</v>
@@ -2555,10 +2555,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
@@ -2605,7 +2605,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>29</v>
@@ -2614,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2">
         <v>22</v>
@@ -2655,7 +2655,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
@@ -2664,7 +2664,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30" s="2">
         <v>22</v>
@@ -2705,7 +2705,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>29</v>
@@ -2714,7 +2714,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2">
         <v>22</v>
@@ -2755,7 +2755,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>29</v>
@@ -2764,7 +2764,7 @@
         <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2">
         <v>25</v>
@@ -2805,16 +2805,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2">
         <v>26</v>
@@ -2855,7 +2855,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
@@ -2903,7 +2903,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>29</v>
@@ -2912,7 +2912,7 @@
         <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2">
         <v>23</v>
@@ -2953,13 +2953,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>23</v>
@@ -2995,16 +2995,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2">
         <v>26</v>
@@ -3045,7 +3045,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>29</v>
@@ -3095,16 +3095,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2">
         <v>27</v>
@@ -3145,16 +3145,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2">
         <v>27</v>
@@ -3187,13 +3187,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>27</v>
@@ -3237,13 +3237,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>19</v>
@@ -3287,7 +3287,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>29</v>
@@ -3296,7 +3296,7 @@
         <v>22</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F43" s="2">
         <v>24</v>
@@ -3337,7 +3337,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>29</v>
@@ -3346,7 +3346,7 @@
         <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F44" s="2">
         <v>23</v>
@@ -3387,13 +3387,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>23</v>
@@ -3437,16 +3437,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2">
         <v>27</v>
@@ -3487,16 +3487,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2">
         <v>23</v>
@@ -3537,7 +3537,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>29</v>
@@ -3546,7 +3546,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F48" s="2">
         <v>22</v>
@@ -3587,13 +3587,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>23</v>
@@ -3629,7 +3629,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>29</v>
@@ -3679,7 +3679,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>29</v>
@@ -3729,13 +3729,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>19</v>
@@ -3779,7 +3779,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>29</v>
@@ -3788,7 +3788,7 @@
         <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" s="2">
         <v>22</v>
@@ -3829,7 +3829,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>29</v>
@@ -3838,7 +3838,7 @@
         <v>22</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2">
         <v>23</v>
@@ -3879,7 +3879,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>29</v>
@@ -3888,7 +3888,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F55" s="2">
         <v>28</v>
@@ -3929,13 +3929,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>23</v>
@@ -3979,16 +3979,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2">
         <v>23</v>
@@ -4029,13 +4029,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>19</v>
@@ -4079,16 +4079,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2">
         <v>22</v>
@@ -4129,13 +4129,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>19</v>
@@ -4179,16 +4179,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2">
         <v>29</v>
@@ -4229,7 +4229,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>29</v>
@@ -4238,7 +4238,7 @@
         <v>26</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2">
         <v>2016</v>
@@ -4279,16 +4279,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" s="2">
         <v>31</v>
@@ -4329,13 +4329,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>27</v>
@@ -4379,13 +4379,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>19</v>
@@ -4429,16 +4429,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2">
         <v>25</v>
@@ -4471,7 +4471,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>29</v>
@@ -4521,13 +4521,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>23</v>
@@ -4571,16 +4571,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2">
         <v>21</v>
@@ -4621,7 +4621,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>29</v>
@@ -4630,7 +4630,7 @@
         <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2">
         <v>25</v>
@@ -4671,7 +4671,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>29</v>
@@ -4680,7 +4680,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F71" s="2">
         <v>23</v>
@@ -4721,7 +4721,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>29</v>
@@ -4730,7 +4730,7 @@
         <v>26</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2">
         <v>26</v>
@@ -4771,13 +4771,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>30</v>
@@ -4821,7 +4821,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>29</v>
@@ -4830,7 +4830,7 @@
         <v>18</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F74" s="2">
         <v>23</v>
@@ -4871,13 +4871,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -4921,7 +4921,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>29</v>
@@ -4971,13 +4971,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>23</v>
@@ -5021,13 +5021,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
@@ -5063,16 +5063,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2">
         <v>23</v>
@@ -5113,7 +5113,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2" t="s">
@@ -5161,7 +5161,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>29</v>
@@ -5170,7 +5170,7 @@
         <v>26</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2">
         <v>27</v>
@@ -5211,7 +5211,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>29</v>
@@ -5261,13 +5261,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>27</v>
@@ -5303,16 +5303,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F84" s="2">
         <v>26</v>
@@ -5353,7 +5353,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>29</v>
@@ -5403,16 +5403,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F86" s="2">
         <v>21</v>
@@ -5453,7 +5453,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>29</v>
@@ -5462,7 +5462,7 @@
         <v>22</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2">
         <v>25</v>
@@ -5503,16 +5503,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F88" s="2">
         <v>23</v>
@@ -5553,7 +5553,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>29</v>
@@ -5562,7 +5562,7 @@
         <v>26</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F89" s="2">
         <v>26</v>
@@ -5603,16 +5603,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F90" s="2">
         <v>24</v>
@@ -5653,16 +5653,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F91" s="2">
         <v>27</v>
@@ -5703,16 +5703,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2">
         <v>24</v>
@@ -5753,16 +5753,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F93" s="2">
         <v>32</v>
@@ -5803,7 +5803,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>29</v>
@@ -5812,7 +5812,7 @@
         <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F94" s="2">
         <v>23</v>
@@ -5853,16 +5853,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2">
         <v>24</v>
@@ -5903,16 +5903,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F96" s="2">
         <v>20</v>
@@ -5953,13 +5953,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>30</v>
@@ -6003,16 +6003,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F98" s="2">
         <v>30</v>
@@ -6053,7 +6053,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
@@ -6103,7 +6103,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
@@ -6112,7 +6112,7 @@
         <v>22</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2">
         <v>22</v>
@@ -6153,7 +6153,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>29</v>
@@ -6162,7 +6162,7 @@
         <v>26</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2">
         <v>23</v>
@@ -6203,7 +6203,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>29</v>
@@ -6212,7 +6212,7 @@
         <v>18</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F102" s="2">
         <v>26</v>
@@ -6253,7 +6253,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>29</v>
@@ -6262,7 +6262,7 @@
         <v>18</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F103" s="2">
         <v>22</v>
@@ -6303,16 +6303,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2">
         <v>27</v>
@@ -6353,7 +6353,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>29</v>
@@ -6403,16 +6403,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F106" s="2">
         <v>25</v>
@@ -6445,16 +6445,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2">
         <v>23</v>
@@ -6487,16 +6487,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F108" s="2">
         <v>31</v>
@@ -6537,16 +6537,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F109" s="2">
         <v>22</v>
@@ -6587,10 +6587,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>26</v>
@@ -6637,16 +6637,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F111" s="2">
         <v>29</v>
@@ -6679,7 +6679,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>29</v>
@@ -6729,7 +6729,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>29</v>
@@ -6779,10 +6779,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>22</v>
@@ -6829,7 +6829,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>29</v>
@@ -6879,16 +6879,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F116" s="2">
         <v>25</v>
@@ -6929,7 +6929,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>29</v>
@@ -6979,7 +6979,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>29</v>
@@ -6988,7 +6988,7 @@
         <v>18</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2">
         <v>23</v>
@@ -7029,16 +7029,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" s="2">
         <v>33</v>
@@ -7079,7 +7079,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>29</v>
@@ -7088,7 +7088,7 @@
         <v>26</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F120" s="2">
         <v>28</v>
@@ -7129,7 +7129,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>29</v>
@@ -7138,7 +7138,7 @@
         <v>26</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F121" s="2">
         <v>22</v>
@@ -7179,7 +7179,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>29</v>
@@ -7188,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F122" s="2">
         <v>26</v>
@@ -7229,16 +7229,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F123" s="2">
         <v>25</v>
@@ -7279,16 +7279,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F124" s="2">
         <v>31</v>
@@ -7329,16 +7329,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F125" s="2">
         <v>25</v>
@@ -7379,16 +7379,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F126" s="2">
         <v>22</v>
@@ -7429,7 +7429,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>29</v>
@@ -7438,7 +7438,7 @@
         <v>22</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2">
         <v>26</v>
@@ -7479,16 +7479,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F128" s="2">
         <v>22</v>
@@ -7529,13 +7529,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>30</v>
@@ -7579,13 +7579,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>23</v>
@@ -7629,16 +7629,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F131" s="2">
         <v>29</v>
@@ -7679,7 +7679,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>29</v>
@@ -7729,7 +7729,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>29</v>
@@ -7738,7 +7738,7 @@
         <v>18</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F133" s="2">
         <v>23</v>
@@ -7779,16 +7779,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F134" s="2">
         <v>24</v>
@@ -7829,7 +7829,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>29</v>
@@ -7879,7 +7879,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>25</v>
@@ -7929,13 +7929,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>19</v>
@@ -7979,13 +7979,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>27</v>
@@ -8029,7 +8029,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>29</v>
@@ -8038,7 +8038,7 @@
         <v>26</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F139" s="2">
         <v>23</v>
@@ -8079,16 +8079,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F140" s="2">
         <v>28</v>
@@ -8129,16 +8129,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F141" s="2">
         <v>27</v>
@@ -8171,7 +8171,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>29</v>
@@ -8180,7 +8180,7 @@
         <v>26</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F142" s="2">
         <v>25</v>
@@ -8221,7 +8221,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>29</v>
@@ -8230,7 +8230,7 @@
         <v>18</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2">
         <v>21</v>
@@ -8271,13 +8271,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>30</v>
@@ -8321,7 +8321,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>29</v>
@@ -8330,7 +8330,7 @@
         <v>26</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2">
         <v>28</v>
@@ -8371,16 +8371,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F146" s="2">
         <v>22</v>
@@ -8421,7 +8421,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>29</v>
@@ -8471,16 +8471,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2">
         <v>27</v>
@@ -8521,7 +8521,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>29</v>
@@ -8571,13 +8571,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>27</v>
@@ -8621,13 +8621,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>27</v>
@@ -8671,7 +8671,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>29</v>
@@ -8721,7 +8721,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>33</v>
@@ -8730,7 +8730,7 @@
         <v>22</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F153" s="2">
         <v>22</v>
@@ -8771,7 +8771,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>29</v>
@@ -8780,7 +8780,7 @@
         <v>18</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F154" s="2">
         <v>23</v>
@@ -8821,7 +8821,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>29</v>
@@ -8830,7 +8830,7 @@
         <v>22</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F155" s="2">
         <v>23</v>
@@ -8871,7 +8871,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>29</v>
@@ -8880,7 +8880,7 @@
         <v>18</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F156" s="2">
         <v>40</v>
@@ -8921,7 +8921,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>29</v>
@@ -8930,7 +8930,7 @@
         <v>18</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F157" s="2">
         <v>22</v>
@@ -8971,7 +8971,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>25</v>
@@ -9021,7 +9021,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>29</v>
@@ -9030,7 +9030,7 @@
         <v>18</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F159" s="2">
         <v>22</v>
@@ -9071,16 +9071,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F160" s="2">
         <v>27</v>
@@ -9121,7 +9121,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>29</v>
@@ -9171,7 +9171,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>29</v>
@@ -9221,7 +9221,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>29</v>
@@ -9230,7 +9230,7 @@
         <v>26</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F163" s="2">
         <v>21</v>
@@ -9271,7 +9271,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>29</v>
@@ -9280,7 +9280,7 @@
         <v>22</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F164" s="2">
         <v>30</v>
@@ -9321,7 +9321,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>17</v>
@@ -9330,7 +9330,7 @@
         <v>22</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F165" s="2">
         <v>21</v>
@@ -9371,16 +9371,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F166" s="2">
         <v>21</v>
@@ -9421,7 +9421,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>29</v>
@@ -9471,16 +9471,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F168" s="2">
         <v>26</v>
@@ -9521,7 +9521,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>29</v>
@@ -9530,7 +9530,7 @@
         <v>18</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F169" s="2">
         <v>28</v>
@@ -9571,16 +9571,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F170" s="2">
         <v>23</v>
@@ -9621,7 +9621,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>29</v>
@@ -9671,16 +9671,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F172" s="2">
         <v>22</v>
@@ -9721,13 +9721,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>23</v>
@@ -9763,7 +9763,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>29</v>
@@ -9772,7 +9772,7 @@
         <v>26</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F174" s="2">
         <v>27</v>
@@ -9813,13 +9813,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>23</v>
@@ -9863,7 +9863,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>29</v>
@@ -9913,11 +9913,11 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>19</v>
@@ -9953,16 +9953,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F178" s="2">
         <v>26</v>
@@ -10003,16 +10003,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F179" s="2">
         <v>27</v>
@@ -10053,16 +10053,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F180" s="2">
         <v>26</v>
@@ -10103,10 +10103,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>26</v>
@@ -10153,7 +10153,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>29</v>
@@ -10162,7 +10162,7 @@
         <v>26</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F182" s="2">
         <v>24</v>
@@ -10203,7 +10203,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>29</v>
@@ -10212,7 +10212,7 @@
         <v>18</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F183" s="2">
         <v>25</v>
@@ -10253,7 +10253,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>29</v>
@@ -10303,7 +10303,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>29</v>
@@ -10312,7 +10312,7 @@
         <v>18</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F185" s="2">
         <v>21</v>
@@ -10353,16 +10353,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F186" s="2">
         <v>24</v>
@@ -10403,16 +10403,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F187" s="2">
         <v>32</v>
@@ -10453,7 +10453,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>29</v>
@@ -10462,7 +10462,7 @@
         <v>26</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F188" s="2">
         <v>23</v>
@@ -10503,7 +10503,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>29</v>
@@ -10512,7 +10512,7 @@
         <v>18</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F189" s="2">
         <v>21</v>
@@ -10553,16 +10553,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F190" s="2">
         <v>22</v>
@@ -10595,13 +10595,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>23</v>
@@ -10645,16 +10645,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F192" s="2">
         <v>22</v>
@@ -10695,16 +10695,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F193" s="2">
         <v>34</v>
@@ -10737,7 +10737,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>29</v>
@@ -10746,7 +10746,7 @@
         <v>18</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F194" s="2">
         <v>22</v>
@@ -10787,7 +10787,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>29</v>
@@ -10837,13 +10837,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>19</v>
@@ -10887,16 +10887,16 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F197" s="2">
         <v>22</v>
@@ -10929,7 +10929,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>29</v>
@@ -10938,7 +10938,7 @@
         <v>26</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F198" s="2">
         <v>25</v>
@@ -10979,16 +10979,16 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F199" s="2">
         <v>23</v>
@@ -11029,16 +11029,16 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F200" s="2">
         <v>25</v>
@@ -11071,7 +11071,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>29</v>
@@ -11080,7 +11080,7 @@
         <v>18</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F201" s="2">
         <v>23</v>
@@ -11121,16 +11121,16 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F202" s="2">
         <v>21</v>
@@ -11163,7 +11163,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>29</v>
@@ -11213,13 +11213,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>27</v>
@@ -11263,16 +11263,16 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F205" s="2">
         <v>27</v>
@@ -11313,7 +11313,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>29</v>
@@ -11322,7 +11322,7 @@
         <v>26</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F206" s="2">
         <v>23</v>
@@ -11363,16 +11363,16 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F207" s="2">
         <v>22</v>
@@ -11413,7 +11413,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>29</v>
@@ -11463,16 +11463,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F209" s="2">
         <v>21</v>
@@ -11513,13 +11513,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>30</v>
@@ -11563,7 +11563,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>29</v>
@@ -11572,7 +11572,7 @@
         <v>18</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F211" s="2">
         <v>22</v>
@@ -11613,13 +11613,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>27</v>
@@ -11655,13 +11655,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>23</v>
@@ -11705,7 +11705,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>29</v>
@@ -11714,7 +11714,7 @@
         <v>18</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F214" s="2">
         <v>26</v>
@@ -11755,7 +11755,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>29</v>
@@ -11764,7 +11764,7 @@
         <v>26</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F215" s="2">
         <v>27</v>
@@ -11805,7 +11805,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>29</v>
@@ -11855,16 +11855,16 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F217" s="2">
         <v>25</v>
@@ -11905,7 +11905,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>29</v>
@@ -11914,7 +11914,7 @@
         <v>18</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F218" s="2">
         <v>23</v>
@@ -11955,16 +11955,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F219" s="2">
         <v>24</v>
@@ -11997,7 +11997,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>29</v>
@@ -12006,7 +12006,7 @@
         <v>22</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F220" s="2">
         <v>27</v>
@@ -12047,16 +12047,16 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F221" s="2">
         <v>23</v>
@@ -12097,7 +12097,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>29</v>
